--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
@@ -540,40 +540,40 @@
         <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J2">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>12.81383</v>
+        <v>10.502639</v>
       </c>
       <c r="N2">
-        <v>38.44149</v>
+        <v>31.507917</v>
       </c>
       <c r="O2">
-        <v>0.9473986646189124</v>
+        <v>0.9701256668284471</v>
       </c>
       <c r="P2">
-        <v>0.9473986646189124</v>
+        <v>0.970125666828447</v>
       </c>
       <c r="Q2">
-        <v>117.3357202142467</v>
+        <v>96.17223821568068</v>
       </c>
       <c r="R2">
-        <v>1056.02148192822</v>
+        <v>865.5501439411261</v>
       </c>
       <c r="S2">
-        <v>0.91847407535911</v>
+        <v>0.9404123589533547</v>
       </c>
       <c r="T2">
-        <v>0.9184740753591099</v>
+        <v>0.9404123589533546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J3">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>0.878162</v>
       </c>
       <c r="O3">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="P3">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="Q3">
         <v>2.68043124069289</v>
@@ -632,10 +632,10 @@
         <v>24.123881166236</v>
       </c>
       <c r="S3">
-        <v>0.02098173174259132</v>
+        <v>0.02621037747316638</v>
       </c>
       <c r="T3">
-        <v>0.02098173174259131</v>
+        <v>0.02621037747316637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J4">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.418727</v>
+        <v>0.03070066666666667</v>
       </c>
       <c r="N4">
-        <v>1.256181</v>
+        <v>0.092102</v>
       </c>
       <c r="O4">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="P4">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="Q4">
-        <v>3.834266110768668</v>
+        <v>0.281124756172889</v>
       </c>
       <c r="R4">
-        <v>34.508394996918</v>
+        <v>2.530122805556</v>
       </c>
       <c r="S4">
-        <v>0.03001365666259768</v>
+        <v>0.002748955416009312</v>
       </c>
       <c r="T4">
-        <v>0.03001365666259768</v>
+        <v>0.002748955416009312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H5">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>12.81383</v>
+        <v>10.502639</v>
       </c>
       <c r="N5">
-        <v>38.44149</v>
+        <v>31.507917</v>
       </c>
       <c r="O5">
-        <v>0.9473986646189124</v>
+        <v>0.9701256668284471</v>
       </c>
       <c r="P5">
-        <v>0.9473986646189124</v>
+        <v>0.970125666828447</v>
       </c>
       <c r="Q5">
-        <v>3.69513697093</v>
+        <v>3.038662025156334</v>
       </c>
       <c r="R5">
-        <v>33.25623273837</v>
+        <v>27.347958226407</v>
       </c>
       <c r="S5">
-        <v>0.02892458925980253</v>
+        <v>0.02971330787509239</v>
       </c>
       <c r="T5">
-        <v>0.02892458925980253</v>
+        <v>0.02971330787509238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H6">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.878162</v>
       </c>
       <c r="O6">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="P6">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="Q6">
-        <v>0.08441215136733334</v>
+        <v>0.08469101658911113</v>
       </c>
       <c r="R6">
-        <v>0.7597093623060001</v>
+        <v>0.7622191493020001</v>
       </c>
       <c r="S6">
-        <v>0.0006607567800719147</v>
+        <v>0.0008281441731043942</v>
       </c>
       <c r="T6">
-        <v>0.0006607567800719147</v>
+        <v>0.0008281441731043941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H7">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.418727</v>
+        <v>0.03070066666666667</v>
       </c>
       <c r="N7">
-        <v>1.256181</v>
+        <v>0.092102</v>
       </c>
       <c r="O7">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="P7">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="Q7">
-        <v>0.120748723717</v>
+        <v>0.008882429449111112</v>
       </c>
       <c r="R7">
-        <v>1.086738513453</v>
+        <v>0.079941865042</v>
       </c>
       <c r="S7">
-        <v>0.0009451901958266446</v>
+        <v>8.685610927284591E-05</v>
       </c>
       <c r="T7">
-        <v>0.0009451901958266446</v>
+        <v>8.685610927284591E-05</v>
       </c>
     </row>
   </sheetData>
